--- a/src/test/resources/testData/testData2.xlsx
+++ b/src/test/resources/testData/testData2.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhgm\IdeaProjects\SeleniumWF\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48086A10-EB8A-49A0-AC8F-0C8D3CEF26AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE47364-FDE3-4C23-85F8-BC6904D7B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2417DE26-B93A-4AFD-9AA4-2D78449CC86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2417DE26-B93A-4AFD-9AA4-2D78449CC86A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Runner" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Cross" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>testDescription</t>
   </si>
@@ -36,9 +38,6 @@
     <t>priority</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>testName</t>
   </si>
   <si>
@@ -57,16 +56,100 @@
     <t>y</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>test3 description</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>fff</t>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Hugoo</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>fernanda</t>
+  </si>
+  <si>
+    <t>arandano</t>
+  </si>
+  <si>
+    <t>gomez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fariaz </t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>crayola</t>
+  </si>
+  <si>
+    <t>karla</t>
+  </si>
+  <si>
+    <t>benitez</t>
+  </si>
+  <si>
+    <t>amtpmio</t>
+  </si>
+  <si>
+    <t>perez</t>
+  </si>
+  <si>
+    <t>fernando</t>
+  </si>
+  <si>
+    <t>lizarraga</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -82,12 +165,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +203,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8BA513-78E4-46C6-8171-05F7FF1075F6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +534,9 @@
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -442,51 +547,272 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330BC53D-6F5E-472E-86B7-5C94246F77EB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EDE06C-7383-4529-AE71-B1084D6F7F32}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
